--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>704</v>
+        <v>705.698026459629</v>
       </c>
       <c r="C2">
-        <v>1156</v>
+        <v>1157.793623994623</v>
       </c>
       <c r="D2">
-        <v>1438</v>
+        <v>1444.187648963287</v>
       </c>
       <c r="E2">
-        <v>1585</v>
+        <v>1589.319899554724</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>709</v>
+        <v>713.4871374663375</v>
       </c>
       <c r="C3">
-        <v>1160</v>
+        <v>1167.018325727053</v>
       </c>
       <c r="D3">
-        <v>1443</v>
+        <v>1450.714238129294</v>
       </c>
       <c r="E3">
-        <v>1587</v>
+        <v>1593.901005905419</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>637</v>
+        <v>636.8114506417281</v>
       </c>
       <c r="C4">
-        <v>1099</v>
+        <v>1102.723238839376</v>
       </c>
       <c r="D4">
-        <v>1406</v>
+        <v>1409.905763062105</v>
       </c>
       <c r="E4">
-        <v>1550</v>
+        <v>1555.648480433783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>710</v>
+        <v>714.0936209589279</v>
       </c>
       <c r="C5">
-        <v>1172</v>
+        <v>1176.781486762983</v>
       </c>
       <c r="D5">
-        <v>1448</v>
+        <v>1454.454665392003</v>
       </c>
       <c r="E5">
-        <v>1600</v>
+        <v>1604.157106965235</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>666</v>
+        <v>671.7520134723012</v>
       </c>
       <c r="C6">
-        <v>1136</v>
+        <v>1140.941785076102</v>
       </c>
       <c r="D6">
-        <v>1432</v>
+        <v>1438.279270177918</v>
       </c>
       <c r="E6">
-        <v>1589</v>
+        <v>1592.155716468016</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>747</v>
+        <v>750.8099286789158</v>
       </c>
       <c r="C7">
-        <v>1203</v>
+        <v>1207.976052222934</v>
       </c>
       <c r="D7">
-        <v>1479</v>
+        <v>1483.315502256271</v>
       </c>
       <c r="E7">
-        <v>1601</v>
+        <v>1605.734104783698</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>354</v>
+        <v>356.6613353955055</v>
       </c>
       <c r="C8">
-        <v>806</v>
+        <v>807.3842191477663</v>
       </c>
       <c r="D8">
-        <v>1184</v>
+        <v>1181.738694825472</v>
       </c>
       <c r="E8">
-        <v>1463</v>
+        <v>1465.874424671512</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>665</v>
+        <v>665.5488374974055</v>
       </c>
       <c r="C9">
-        <v>1113</v>
+        <v>1118.584399760819</v>
       </c>
       <c r="D9">
-        <v>1412</v>
+        <v>1420.839406625197</v>
       </c>
       <c r="E9">
-        <v>1559</v>
+        <v>1566.306438240137</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>794</v>
+        <v>796.7028593535204</v>
       </c>
       <c r="C10">
-        <v>1252</v>
+        <v>1256.002499623704</v>
       </c>
       <c r="D10">
-        <v>1509</v>
+        <v>1513.159627900369</v>
       </c>
       <c r="E10">
-        <v>1635</v>
+        <v>1641.04387868246</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>783</v>
+        <v>788.236008520571</v>
       </c>
       <c r="C11">
-        <v>1245</v>
+        <v>1248.948808275188</v>
       </c>
       <c r="D11">
-        <v>1503</v>
+        <v>1508.582765334469</v>
       </c>
       <c r="E11">
-        <v>1633</v>
+        <v>1637.111851400533</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>719</v>
+        <v>720.6201348792119</v>
       </c>
       <c r="C12">
-        <v>1189</v>
+        <v>1192.728605902402</v>
       </c>
       <c r="D12">
-        <v>1474</v>
+        <v>1479.979521199734</v>
       </c>
       <c r="E12">
-        <v>1601</v>
+        <v>1605.589635760548</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>775</v>
+        <v>774.2730251325225</v>
       </c>
       <c r="C13">
-        <v>1235</v>
+        <v>1237.533746002944</v>
       </c>
       <c r="D13">
-        <v>1497</v>
+        <v>1501.870447865611</v>
       </c>
       <c r="E13">
-        <v>1627</v>
+        <v>1631.387590119088</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV.xlsx
@@ -388,13 +388,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>705.698026459629</v>
+        <v>705.6980264596291</v>
       </c>
       <c r="C2">
-        <v>1157.793623994623</v>
+        <v>1157.793623994624</v>
       </c>
       <c r="D2">
-        <v>1444.187648963287</v>
+        <v>1444.187648963286</v>
       </c>
       <c r="E2">
         <v>1589.319899554724</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>713.4871374663375</v>
+        <v>713.4871374663371</v>
       </c>
       <c r="C3">
-        <v>1167.018325727053</v>
+        <v>1167.018325727052</v>
       </c>
       <c r="D3">
         <v>1450.714238129294</v>
       </c>
       <c r="E3">
-        <v>1593.901005905419</v>
+        <v>1593.901005905421</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>636.8114506417281</v>
+        <v>636.8114506417274</v>
       </c>
       <c r="C4">
-        <v>1102.723238839376</v>
+        <v>1102.723238839377</v>
       </c>
       <c r="D4">
-        <v>1409.905763062105</v>
+        <v>1409.905763062106</v>
       </c>
       <c r="E4">
         <v>1555.648480433783</v>
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>714.0936209589279</v>
+        <v>714.0936209589281</v>
       </c>
       <c r="C5">
         <v>1176.781486762983</v>
       </c>
       <c r="D5">
-        <v>1454.454665392003</v>
+        <v>1454.454665392004</v>
       </c>
       <c r="E5">
         <v>1604.157106965235</v>
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>671.7520134723012</v>
+        <v>671.7520134723017</v>
       </c>
       <c r="C6">
-        <v>1140.941785076102</v>
+        <v>1140.941785076103</v>
       </c>
       <c r="D6">
-        <v>1438.279270177918</v>
+        <v>1438.279270177916</v>
       </c>
       <c r="E6">
-        <v>1592.155716468016</v>
+        <v>1592.155716468017</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>750.8099286789158</v>
+        <v>750.8099286789156</v>
       </c>
       <c r="C7">
-        <v>1207.976052222934</v>
+        <v>1207.976052222935</v>
       </c>
       <c r="D7">
         <v>1483.315502256271</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>356.6613353955055</v>
+        <v>356.6613353955049</v>
       </c>
       <c r="C8">
         <v>807.3842191477663</v>
       </c>
       <c r="D8">
-        <v>1181.738694825472</v>
+        <v>1181.738694825473</v>
       </c>
       <c r="E8">
         <v>1465.874424671512</v>
@@ -513,10 +513,10 @@
         <v>1118.584399760819</v>
       </c>
       <c r="D9">
-        <v>1420.839406625197</v>
+        <v>1420.839406625198</v>
       </c>
       <c r="E9">
-        <v>1566.306438240137</v>
+        <v>1566.306438240138</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>796.7028593535204</v>
+        <v>796.7028593535209</v>
       </c>
       <c r="C10">
         <v>1256.002499623704</v>
@@ -533,7 +533,7 @@
         <v>1513.159627900369</v>
       </c>
       <c r="E10">
-        <v>1641.04387868246</v>
+        <v>1641.043878682461</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>788.236008520571</v>
+        <v>788.2360085205712</v>
       </c>
       <c r="C11">
         <v>1248.948808275188</v>
@@ -550,7 +550,7 @@
         <v>1508.582765334469</v>
       </c>
       <c r="E11">
-        <v>1637.111851400533</v>
+        <v>1637.111851400532</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>720.6201348792119</v>
+        <v>720.6201348792118</v>
       </c>
       <c r="C12">
         <v>1192.728605902402</v>
       </c>
       <c r="D12">
-        <v>1479.979521199734</v>
+        <v>1479.979521199735</v>
       </c>
       <c r="E12">
         <v>1605.589635760548</v>
@@ -578,10 +578,10 @@
         <v>774.2730251325225</v>
       </c>
       <c r="C13">
-        <v>1237.533746002944</v>
+        <v>1237.533746002943</v>
       </c>
       <c r="D13">
-        <v>1501.870447865611</v>
+        <v>1501.870447865612</v>
       </c>
       <c r="E13">
         <v>1631.387590119088</v>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>705.6980264596291</v>
+        <v>706</v>
       </c>
       <c r="C2">
-        <v>1157.793623994624</v>
+        <v>1158</v>
       </c>
       <c r="D2">
-        <v>1444.187648963286</v>
+        <v>1444</v>
       </c>
       <c r="E2">
-        <v>1589.319899554724</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>713.4871374663371</v>
+        <v>713</v>
       </c>
       <c r="C3">
-        <v>1167.018325727052</v>
+        <v>1167</v>
       </c>
       <c r="D3">
-        <v>1450.714238129294</v>
+        <v>1451</v>
       </c>
       <c r="E3">
-        <v>1593.901005905421</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>636.8114506417274</v>
+        <v>637</v>
       </c>
       <c r="C4">
-        <v>1102.723238839377</v>
+        <v>1103</v>
       </c>
       <c r="D4">
-        <v>1409.905763062106</v>
+        <v>1410</v>
       </c>
       <c r="E4">
-        <v>1555.648480433783</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>714.0936209589281</v>
+        <v>714</v>
       </c>
       <c r="C5">
-        <v>1176.781486762983</v>
+        <v>1177</v>
       </c>
       <c r="D5">
-        <v>1454.454665392004</v>
+        <v>1454</v>
       </c>
       <c r="E5">
-        <v>1604.157106965235</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>671.7520134723017</v>
+        <v>672</v>
       </c>
       <c r="C6">
-        <v>1140.941785076103</v>
+        <v>1141</v>
       </c>
       <c r="D6">
-        <v>1438.279270177916</v>
+        <v>1438</v>
       </c>
       <c r="E6">
-        <v>1592.155716468017</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>750.8099286789156</v>
+        <v>751</v>
       </c>
       <c r="C7">
-        <v>1207.976052222935</v>
+        <v>1208</v>
       </c>
       <c r="D7">
-        <v>1483.315502256271</v>
+        <v>1483</v>
       </c>
       <c r="E7">
-        <v>1605.734104783698</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>356.6613353955049</v>
+        <v>357</v>
       </c>
       <c r="C8">
-        <v>807.3842191477663</v>
+        <v>807</v>
       </c>
       <c r="D8">
-        <v>1181.738694825473</v>
+        <v>1182</v>
       </c>
       <c r="E8">
-        <v>1465.874424671512</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>665.5488374974055</v>
+        <v>666</v>
       </c>
       <c r="C9">
-        <v>1118.584399760819</v>
+        <v>1119</v>
       </c>
       <c r="D9">
-        <v>1420.839406625198</v>
+        <v>1421</v>
       </c>
       <c r="E9">
-        <v>1566.306438240138</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>796.7028593535209</v>
+        <v>797</v>
       </c>
       <c r="C10">
-        <v>1256.002499623704</v>
+        <v>1256</v>
       </c>
       <c r="D10">
-        <v>1513.159627900369</v>
+        <v>1513</v>
       </c>
       <c r="E10">
-        <v>1641.043878682461</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>788.2360085205712</v>
+        <v>788</v>
       </c>
       <c r="C11">
-        <v>1248.948808275188</v>
+        <v>1249</v>
       </c>
       <c r="D11">
-        <v>1508.582765334469</v>
+        <v>1509</v>
       </c>
       <c r="E11">
-        <v>1637.111851400532</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>720.6201348792118</v>
+        <v>721</v>
       </c>
       <c r="C12">
-        <v>1192.728605902402</v>
+        <v>1193</v>
       </c>
       <c r="D12">
-        <v>1479.979521199735</v>
+        <v>1480</v>
       </c>
       <c r="E12">
-        <v>1605.589635760548</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>774.2730251325225</v>
+        <v>774</v>
       </c>
       <c r="C13">
-        <v>1237.533746002943</v>
+        <v>1238</v>
       </c>
       <c r="D13">
-        <v>1501.870447865612</v>
+        <v>1502</v>
       </c>
       <c r="E13">
-        <v>1631.387590119088</v>
+        <v>1631</v>
       </c>
     </row>
   </sheetData>
